--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tg-Asgr1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05081533333333333</v>
+        <v>0.04939733333333333</v>
       </c>
       <c r="H2">
-        <v>0.152446</v>
+        <v>0.148192</v>
       </c>
       <c r="I2">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="J2">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N2">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O2">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P2">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q2">
-        <v>0.006361893410444444</v>
+        <v>0.06316596731377776</v>
       </c>
       <c r="R2">
-        <v>0.057257040694</v>
+        <v>0.5684937058239998</v>
       </c>
       <c r="S2">
-        <v>0.0006784906001731975</v>
+        <v>0.006898200871410048</v>
       </c>
       <c r="T2">
-        <v>0.0006784906001731976</v>
+        <v>0.006898200871410048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05081533333333333</v>
+        <v>0.04939733333333333</v>
       </c>
       <c r="H3">
-        <v>0.152446</v>
+        <v>0.148192</v>
       </c>
       <c r="I3">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="J3">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N3">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O3">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P3">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q3">
-        <v>0.06497920976244444</v>
+        <v>0.015702572512</v>
       </c>
       <c r="R3">
-        <v>0.584812887862</v>
+        <v>0.141323152608</v>
       </c>
       <c r="S3">
-        <v>0.006929978260579037</v>
+        <v>0.001714839556680567</v>
       </c>
       <c r="T3">
-        <v>0.006929978260579038</v>
+        <v>0.001714839556680567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05081533333333333</v>
+        <v>0.04939733333333333</v>
       </c>
       <c r="H4">
-        <v>0.152446</v>
+        <v>0.148192</v>
       </c>
       <c r="I4">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="J4">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N4">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O4">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P4">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q4">
-        <v>0.02752341388533333</v>
+        <v>0.01187505307022222</v>
       </c>
       <c r="R4">
-        <v>0.247710724968</v>
+        <v>0.106875477632</v>
       </c>
       <c r="S4">
-        <v>0.002935349022858044</v>
+        <v>0.001296845515404303</v>
       </c>
       <c r="T4">
-        <v>0.002935349022858045</v>
+        <v>0.001296845515404303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05081533333333333</v>
+        <v>0.04939733333333333</v>
       </c>
       <c r="H5">
-        <v>0.152446</v>
+        <v>0.148192</v>
       </c>
       <c r="I5">
-        <v>0.01204428526135046</v>
+        <v>0.01161064749150641</v>
       </c>
       <c r="J5">
-        <v>0.01204428526135047</v>
+        <v>0.01161064749150642</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N5">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O5">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P5">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q5">
-        <v>0.01406919052466666</v>
+        <v>0.01557366193777778</v>
       </c>
       <c r="R5">
-        <v>0.126622714722</v>
+        <v>0.14016295744</v>
       </c>
       <c r="S5">
-        <v>0.001500467377740187</v>
+        <v>0.001700761548011495</v>
       </c>
       <c r="T5">
-        <v>0.001500467377740187</v>
+        <v>0.001700761548011495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>0.9223140000000001</v>
       </c>
       <c r="I6">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="J6">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N6">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O6">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P6">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q6">
-        <v>0.03849011032733334</v>
+        <v>0.3931309110953333</v>
       </c>
       <c r="R6">
-        <v>0.346410992946</v>
+        <v>3.538178199858</v>
       </c>
       <c r="S6">
-        <v>0.004104938006954217</v>
+        <v>0.04293286573171081</v>
       </c>
       <c r="T6">
-        <v>0.004104938006954217</v>
+        <v>0.04293286573171081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>0.9223140000000001</v>
       </c>
       <c r="I7">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="J7">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N7">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O7">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P7">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q7">
-        <v>0.3931309110953334</v>
+        <v>0.09772931375400003</v>
       </c>
       <c r="R7">
-        <v>3.538178199858001</v>
+        <v>0.8795638237860002</v>
       </c>
       <c r="S7">
-        <v>0.0419270821761653</v>
+        <v>0.01067277944072744</v>
       </c>
       <c r="T7">
-        <v>0.04192708217616531</v>
+        <v>0.01067277944072744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.9223140000000001</v>
       </c>
       <c r="I8">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="J8">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N8">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O8">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P8">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q8">
-        <v>0.166519488568</v>
+        <v>0.07390768528266667</v>
       </c>
       <c r="R8">
-        <v>1.498675397112</v>
+        <v>0.665169167544</v>
       </c>
       <c r="S8">
-        <v>0.01775916389192432</v>
+        <v>0.008071277631009803</v>
       </c>
       <c r="T8">
-        <v>0.01775916389192432</v>
+        <v>0.008071277631009803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>0.9223140000000001</v>
       </c>
       <c r="I9">
-        <v>0.07286916623943687</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="J9">
-        <v>0.07286916623943689</v>
+        <v>0.07226208385392767</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N9">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O9">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P9">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q9">
-        <v>0.08512005162200001</v>
+        <v>0.09692700305333335</v>
       </c>
       <c r="R9">
-        <v>0.7660804645980001</v>
+        <v>0.87234302748</v>
       </c>
       <c r="S9">
-        <v>0.00907798216439305</v>
+        <v>0.01058516105047961</v>
       </c>
       <c r="T9">
-        <v>0.009077982164393053</v>
+        <v>0.01058516105047961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1358973333333333</v>
+        <v>0.230218</v>
       </c>
       <c r="H10">
-        <v>0.4076920000000001</v>
+        <v>0.690654</v>
       </c>
       <c r="I10">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="J10">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N10">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O10">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P10">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q10">
-        <v>0.01701384784311111</v>
+        <v>0.2943872003153333</v>
       </c>
       <c r="R10">
-        <v>0.153124630588</v>
+        <v>2.649484802837999</v>
       </c>
       <c r="S10">
-        <v>0.001814512612766562</v>
+        <v>0.03214930647162354</v>
       </c>
       <c r="T10">
-        <v>0.001814512612766562</v>
+        <v>0.03214930647162354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1358973333333333</v>
+        <v>0.230218</v>
       </c>
       <c r="H11">
-        <v>0.4076920000000001</v>
+        <v>0.690654</v>
       </c>
       <c r="I11">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="J11">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N11">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O11">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P11">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q11">
-        <v>0.1737763141471111</v>
+        <v>0.07318238849400001</v>
       </c>
       <c r="R11">
-        <v>1.563986827324</v>
+        <v>0.658641496446</v>
       </c>
       <c r="S11">
-        <v>0.01853309825782237</v>
+        <v>0.007992069741819131</v>
       </c>
       <c r="T11">
-        <v>0.01853309825782238</v>
+        <v>0.007992069741819131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1358973333333333</v>
+        <v>0.230218</v>
       </c>
       <c r="H12">
-        <v>0.4076920000000001</v>
+        <v>0.690654</v>
       </c>
       <c r="I12">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="J12">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N12">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O12">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P12">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q12">
-        <v>0.07360688803733334</v>
+        <v>0.05534410024266666</v>
       </c>
       <c r="R12">
-        <v>0.6624619923360001</v>
+        <v>0.4980969021839999</v>
       </c>
       <c r="S12">
-        <v>0.007850112917538288</v>
+        <v>0.006043993890331757</v>
       </c>
       <c r="T12">
-        <v>0.00785011291753829</v>
+        <v>0.006043993890331757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1358973333333333</v>
+        <v>0.230218</v>
       </c>
       <c r="H13">
-        <v>0.4076920000000001</v>
+        <v>0.690654</v>
       </c>
       <c r="I13">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="J13">
-        <v>0.03221047942727585</v>
+        <v>0.05411182879371945</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N13">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O13">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P13">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q13">
-        <v>0.03762575878266666</v>
+        <v>0.07258159625333334</v>
       </c>
       <c r="R13">
-        <v>0.338631829044</v>
+        <v>0.65323436628</v>
       </c>
       <c r="S13">
-        <v>0.004012755639148631</v>
+        <v>0.007926458689945012</v>
       </c>
       <c r="T13">
-        <v>0.004012755639148633</v>
+        <v>0.007926458689945012</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3427856666666667</v>
+        <v>0.02954266666666666</v>
       </c>
       <c r="H14">
-        <v>1.028357</v>
+        <v>0.088628</v>
       </c>
       <c r="I14">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192065</v>
       </c>
       <c r="J14">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192066</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N14">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O14">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P14">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q14">
-        <v>0.04291550858588888</v>
+        <v>0.03777716307955555</v>
       </c>
       <c r="R14">
-        <v>0.386239577273</v>
+        <v>0.3399944677159999</v>
       </c>
       <c r="S14">
-        <v>0.00457690302220005</v>
+        <v>0.004125551627829639</v>
       </c>
       <c r="T14">
-        <v>0.00457690302220005</v>
+        <v>0.004125551627829639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3427856666666667</v>
+        <v>0.02954266666666666</v>
       </c>
       <c r="H15">
-        <v>1.028357</v>
+        <v>0.088628</v>
       </c>
       <c r="I15">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192065</v>
       </c>
       <c r="J15">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192066</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N15">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O15">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P15">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q15">
-        <v>0.4383311153698889</v>
+        <v>0.009391111508</v>
       </c>
       <c r="R15">
-        <v>3.944980038329</v>
+        <v>0.084520003572</v>
       </c>
       <c r="S15">
-        <v>0.04674764607870509</v>
+        <v>0.001025580329771414</v>
       </c>
       <c r="T15">
-        <v>0.04674764607870509</v>
+        <v>0.001025580329771414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3427856666666667</v>
+        <v>0.02954266666666666</v>
       </c>
       <c r="H16">
-        <v>1.028357</v>
+        <v>0.088628</v>
       </c>
       <c r="I16">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192065</v>
       </c>
       <c r="J16">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192066</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N16">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O16">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P16">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q16">
-        <v>0.1856650573506667</v>
+        <v>0.007102017676444443</v>
       </c>
       <c r="R16">
-        <v>1.670985516156</v>
+        <v>0.063918159088</v>
       </c>
       <c r="S16">
-        <v>0.01980102275624962</v>
+        <v>0.0007755939884693681</v>
       </c>
       <c r="T16">
-        <v>0.01980102275624962</v>
+        <v>0.0007755939884693681</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3427856666666667</v>
+        <v>0.02954266666666666</v>
       </c>
       <c r="H17">
-        <v>1.028357</v>
+        <v>0.088628</v>
       </c>
       <c r="I17">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192065</v>
       </c>
       <c r="J17">
-        <v>0.0812472945076065</v>
+        <v>0.006943886754192066</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N17">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O17">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P17">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q17">
-        <v>0.09490672474433333</v>
+        <v>0.009314014995555555</v>
       </c>
       <c r="R17">
-        <v>0.854160522699</v>
+        <v>0.08382613495999999</v>
       </c>
       <c r="S17">
-        <v>0.01012172265045174</v>
+        <v>0.001017160808121645</v>
       </c>
       <c r="T17">
-        <v>0.01012172265045174</v>
+        <v>0.001017160808121645</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.250474666666667</v>
+        <v>3.583446</v>
       </c>
       <c r="H18">
-        <v>9.751424</v>
+        <v>10.750338</v>
       </c>
       <c r="I18">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="J18">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N18">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O18">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P18">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q18">
-        <v>0.4069475098595556</v>
+        <v>4.582268264953999</v>
       </c>
       <c r="R18">
-        <v>3.662527588736</v>
+        <v>41.24041438458599</v>
       </c>
       <c r="S18">
-        <v>0.04340061085435711</v>
+        <v>0.5004183151556937</v>
       </c>
       <c r="T18">
-        <v>0.04340061085435711</v>
+        <v>0.5004183151556937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.250474666666667</v>
+        <v>3.583446</v>
       </c>
       <c r="H19">
-        <v>9.751424</v>
+        <v>10.750338</v>
       </c>
       <c r="I19">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="J19">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N19">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O19">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P19">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q19">
-        <v>4.156487054947556</v>
+        <v>1.139116564818</v>
       </c>
       <c r="R19">
-        <v>37.408383494528</v>
+        <v>10.252049083362</v>
       </c>
       <c r="S19">
-        <v>0.4432858607617693</v>
+        <v>0.1244001352980341</v>
       </c>
       <c r="T19">
-        <v>0.4432858607617693</v>
+        <v>0.124400135298034</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.250474666666667</v>
+        <v>3.583446</v>
       </c>
       <c r="H20">
-        <v>9.751424</v>
+        <v>10.750338</v>
       </c>
       <c r="I20">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="J20">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N20">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O20">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P20">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q20">
-        <v>1.760574096554667</v>
+        <v>0.861455640472</v>
       </c>
       <c r="R20">
-        <v>15.845166868992</v>
+        <v>7.753100764247999</v>
       </c>
       <c r="S20">
-        <v>0.1877637518194934</v>
+        <v>0.09407746453506578</v>
       </c>
       <c r="T20">
-        <v>0.1877637518194934</v>
+        <v>0.09407746453506578</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.250474666666667</v>
+        <v>3.583446</v>
       </c>
       <c r="H21">
-        <v>9.751424</v>
+        <v>10.750338</v>
       </c>
       <c r="I21">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="J21">
-        <v>0.7704297414191202</v>
+        <v>0.8422747849583385</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N21">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O21">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P21">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q21">
-        <v>0.8999556704853333</v>
+        <v>1.12976496524</v>
       </c>
       <c r="R21">
-        <v>8.099601034368</v>
+        <v>10.16788468716</v>
       </c>
       <c r="S21">
-        <v>0.09597951798350056</v>
+        <v>0.1233788699695449</v>
       </c>
       <c r="T21">
-        <v>0.09597951798350056</v>
+        <v>0.1233788699695449</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,46 +1783,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.13163</v>
+        <v>0.05444366666666667</v>
       </c>
       <c r="H22">
-        <v>0.39489</v>
+        <v>0.163331</v>
       </c>
       <c r="I22">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="J22">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1251963333333333</v>
+        <v>1.278732333333333</v>
       </c>
       <c r="N22">
-        <v>0.375589</v>
+        <v>3.836196999999999</v>
       </c>
       <c r="O22">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="P22">
-        <v>0.0563329899160095</v>
+        <v>0.594127147211757</v>
       </c>
       <c r="Q22">
-        <v>0.01647959335666667</v>
+        <v>0.06961887691188888</v>
       </c>
       <c r="R22">
-        <v>0.14831634021</v>
+        <v>0.6265698922069999</v>
       </c>
       <c r="S22">
-        <v>0.001757534819558362</v>
+        <v>0.007602907353489221</v>
       </c>
       <c r="T22">
-        <v>0.001757534819558362</v>
+        <v>0.007602907353489223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.13163</v>
+        <v>0.05444366666666667</v>
       </c>
       <c r="H23">
-        <v>0.39489</v>
+        <v>0.163331</v>
       </c>
       <c r="I23">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="J23">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.278732333333333</v>
+        <v>0.317883</v>
       </c>
       <c r="N23">
-        <v>3.836197</v>
+        <v>0.9536490000000001</v>
       </c>
       <c r="O23">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="P23">
-        <v>0.5753748030874863</v>
+        <v>0.1476954285223999</v>
       </c>
       <c r="Q23">
-        <v>0.1683195370366667</v>
+        <v>0.017306716091</v>
       </c>
       <c r="R23">
-        <v>1.51487583333</v>
+        <v>0.155760444819</v>
       </c>
       <c r="S23">
-        <v>0.01795113755244517</v>
+        <v>0.00189002415536732</v>
       </c>
       <c r="T23">
-        <v>0.01795113755244517</v>
+        <v>0.001890024155367319</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,46 +1907,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.13163</v>
+        <v>0.05444366666666667</v>
       </c>
       <c r="H24">
-        <v>0.39489</v>
+        <v>0.163331</v>
       </c>
       <c r="I24">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="J24">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.541636</v>
+        <v>0.2403986666666666</v>
       </c>
       <c r="N24">
-        <v>1.624908</v>
+        <v>0.7211959999999999</v>
       </c>
       <c r="O24">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="P24">
-        <v>0.2437130107070312</v>
+        <v>0.1116945042344098</v>
       </c>
       <c r="Q24">
-        <v>0.07129554668</v>
+        <v>0.01308818487511111</v>
       </c>
       <c r="R24">
-        <v>0.6416599201200001</v>
+        <v>0.117793663876</v>
       </c>
       <c r="S24">
-        <v>0.00760361029896759</v>
+        <v>0.001429328674128835</v>
       </c>
       <c r="T24">
-        <v>0.007603610298967591</v>
+        <v>0.001429328674128835</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.13163</v>
+        <v>0.05444366666666667</v>
       </c>
       <c r="H25">
-        <v>0.39489</v>
+        <v>0.163331</v>
       </c>
       <c r="I25">
-        <v>0.03119903314521001</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="J25">
-        <v>0.03119903314521002</v>
+        <v>0.01279676814831593</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.276869</v>
+        <v>0.3152733333333333</v>
       </c>
       <c r="N25">
-        <v>0.830607</v>
+        <v>0.94582</v>
       </c>
       <c r="O25">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="P25">
-        <v>0.1245791962894731</v>
+        <v>0.1464829200314332</v>
       </c>
       <c r="Q25">
-        <v>0.03644426646999999</v>
+        <v>0.01716463626888889</v>
       </c>
       <c r="R25">
-        <v>0.32799839823</v>
+        <v>0.15448172642</v>
       </c>
       <c r="S25">
-        <v>0.003886750474238894</v>
+        <v>0.001874507965330555</v>
       </c>
       <c r="T25">
-        <v>0.003886750474238895</v>
+        <v>0.001874507965330555</v>
       </c>
     </row>
   </sheetData>
